--- a/sources/test-15.xlsx
+++ b/sources/test-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="45">
   <si>
     <t>姓 名</t>
   </si>
@@ -1089,7 +1089,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C12:C13"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1495,9 +1495,7 @@
       <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
+      <c r="C13"/>
       <c r="D13">
         <v>18228881197</v>
       </c>
